--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/er.5797</t>
+          <t>https://doi.org/10.1021/acsami.3c07868</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Novel cobaltfree family of &lt;scp&gt; SrFe &lt;sub&gt;1x&lt;/sub&gt; Sc &lt;sub&gt;x&lt;/sub&gt; O &lt;sub&gt;3&lt;/sub&gt; &lt;/scp&gt; &lt;sub&gt;&lt;/sub&gt; perovskite materials for cathode applications in solid oxide fuel cells</t>
+          <t>Electrochemically Assisted Construction of a La&lt;sub&gt;2&lt;/sub&gt;NiO&lt;sub&gt;4+&lt;/sub&gt;@Pt CoreShell Structure for Enhancing the Performance and Durability of La&lt;sub&gt;2&lt;/sub&gt;NiO&lt;sub&gt;4+&lt;/sub&gt; Cathodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,18 +482,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7645794539452442</v>
+        <v>0.7590646456069089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.iecr.0c02773</t>
+          <t>https://doi.org/10.1021/acssuschemeng.3c03819</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Electrochemical Reduction of CO&lt;sub&gt;2&lt;/sub&gt; on Metal-Based Cathode Electrocatalysts of Solid Oxide Electrolysis Cells</t>
+          <t>Tailored Double Perovskite with Boosted Oxygen Reduction Kinetics and CO&lt;sub&gt;2&lt;/sub&gt; Durability for Solid Oxide Fuel Cells</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,36 +503,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7632285518247159</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/er.5819</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Enhanced performance of lithiated cathode materials of &lt;scp&gt; LiCo &lt;sub&gt;0&lt;/sub&gt; &lt;/scp&gt; &lt;sub&gt;.&lt;/sub&gt; &lt;scp&gt; &lt;sub&gt;6&lt;/sub&gt; X &lt;sub&gt;0&lt;/sub&gt; &lt;/scp&gt; &lt;sub&gt;.&lt;/sub&gt; &lt;scp&gt; &lt;sub&gt;4&lt;/sub&gt; O &lt;sub&gt;2&lt;/sub&gt; &lt;/scp&gt; (X = Mn, Sr, Zn) for protonconducting solid oxide fuel cell applications</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7453736047704396</v>
+        <v>0.7498193077693759</v>
       </c>
     </row>
   </sheetData>
